--- a/pandas-ltmpt/ranking-utbk.xlsx
+++ b/pandas-ltmpt/ranking-utbk.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="top100" sheetId="1" r:id="rId1"/>
-    <sheet name="ranking_sby" sheetId="2" r:id="rId2"/>
-    <sheet name="ranking_jatim" sheetId="3" r:id="rId3"/>
+    <sheet name="ranking_kota" sheetId="2" r:id="rId2"/>
+    <sheet name="ranking_provinsi" sheetId="3" r:id="rId3"/>
     <sheet name="sekolah_ranking_naik" sheetId="4" r:id="rId4"/>
     <sheet name="sekolah_ranking_tidak_naik" sheetId="5" r:id="rId5"/>
   </sheets>
